--- a/business/financial/Jibres-Financial-Projection-v2-predict.xlsx
+++ b/business/financial/Jibres-Financial-Projection-v2-predict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8CEE24-53C7-45F1-88BD-14F7248765F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C72493-022B-4F5E-BAD8-7477D9FCCC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="865" activeTab="9" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="263">
   <si>
     <t>#</t>
   </si>
@@ -922,6 +922,9 @@
   </si>
   <si>
     <t>درصد رشد تعداد بیزینس‌ها نسبت به سه‌ماهه قبل</t>
+  </si>
+  <si>
+    <t>روزانه</t>
   </si>
 </sst>
 </file>
@@ -1297,13 +1300,13 @@
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1315,6 +1318,11 @@
   <dxfs count="263">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1330,7 +1338,2546 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1369,6 +3916,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1407,6 +3955,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1445,6 +3994,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1482,6 +4032,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1500,7 +4052,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1519,7 +4071,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1538,7 +4091,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1557,7 +4110,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1576,6 +4130,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1594,7 +4149,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1613,202 +4169,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1837,6 +4197,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1891,7 +4270,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1910,7 +4289,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -1929,7 +4308,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -1967,6 +4346,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2003,6 +4383,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2021,22 +4402,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2055,22 +4421,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2089,22 +4440,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -2123,22 +4458,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -2157,22 +4476,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -2191,22 +4494,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -2225,22 +4512,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -2254,2274 +4525,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
         <color theme="1"/>
         <name val="IRANSansX"/>
         <charset val="178"/>
@@ -14033,16 +14036,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>214311</xdr:rowOff>
+      <xdr:rowOff>204786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14209,48 +14212,48 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="176" dataDxfId="175">
   <autoFilter ref="A1:R13" xr:uid="{11174E64-8CFF-4722-BD71-DA8D32366E61}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="17">
+    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="174" totalsRowDxfId="173">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="34" totalsRowDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="33" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="32" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="31" totalsRowDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="30" totalsRowDxfId="12">
+    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="172" totalsRowDxfId="171"/>
+    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="170" totalsRowDxfId="169"/>
+    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="168" totalsRowDxfId="167"/>
+    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="166" totalsRowDxfId="165"/>
+    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="164" totalsRowDxfId="163">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="29" totalsRowDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="10" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="162" totalsRowDxfId="161" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="160" totalsRowDxfId="159" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="27" totalsRowDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="158" totalsRowDxfId="157" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="26" totalsRowDxfId="8">
+    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="156" totalsRowDxfId="155">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="25" totalsRowDxfId="7">
+    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="154" totalsRowDxfId="153">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="24" totalsRowDxfId="6">
+    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="152" totalsRowDxfId="151">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="23" totalsRowDxfId="5">
+    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="150" totalsRowDxfId="149">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="22" totalsRowDxfId="4">
+    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="148" totalsRowDxfId="147">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="21" totalsRowDxfId="3">
+    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="146" totalsRowDxfId="145">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="20" totalsRowDxfId="2">
+    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="144" totalsRowDxfId="143">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="19" totalsRowDxfId="1">
+    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="142" totalsRowDxfId="141">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="18" totalsRowDxfId="0">
+    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="140" totalsRowDxfId="139">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14259,17 +14262,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D34" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D34" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
   <autoFilter ref="A23:D34" xr:uid="{652F814E-9275-4FA3-8E84-CADC4414840E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="172" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="171">
+    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="136" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="135">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="170">
+    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="134">
       <calculatedColumnFormula>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="169">
+    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="133">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14278,106 +14281,106 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:N10" totalsRowCount="1" headerRowDxfId="168" dataDxfId="167">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:N10" totalsRowCount="1" headerRowDxfId="132" dataDxfId="131">
   <autoFilter ref="A1:N9" xr:uid="{4B45EF50-D07B-4462-B4EB-CF690CB4B7A8}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="130" totalsRowDxfId="129">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="124" totalsRowDxfId="123">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="122" totalsRowDxfId="121">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="120" totalsRowDxfId="119">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="116" totalsRowDxfId="115">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="114" totalsRowDxfId="113">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="112" totalsRowDxfId="111">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E5E75370-59A9-478F-AD12-D9DFE8A58690}" name="1402-Q1" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{C4364BA3-9C9A-4265-A6D3-7CE0E76CAE66}" name="1402-Q2" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{49E2EBC9-64E3-427F-B506-12906391CA1E}" name="1402-Q3" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="14" xr3:uid="{C9211DBC-B52A-4861-8024-A922692AD33E}" name="1402-Q4" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{E5E75370-59A9-478F-AD12-D9DFE8A58690}" name="1402-Q1" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="12" xr3:uid="{C4364BA3-9C9A-4265-A6D3-7CE0E76CAE66}" name="1402-Q2" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="13" xr3:uid="{49E2EBC9-64E3-427F-B506-12906391CA1E}" name="1402-Q3" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="14" xr3:uid="{C9211DBC-B52A-4861-8024-A922692AD33E}" name="1402-Q4" dataDxfId="104" totalsRowDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{D7891E41-FBB0-4A7D-8022-E9A567F2755B}" name="Table19" displayName="Table19" ref="A15:D43" totalsRowShown="0" headerRowDxfId="68" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{D7891E41-FBB0-4A7D-8022-E9A567F2755B}" name="Table19" displayName="Table19" ref="A15:D43" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A15:D43" xr:uid="{D7891E41-FBB0-4A7D-8022-E9A567F2755B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7B0EFEC3-8172-4D43-9BF4-B3EBF38D7C74}" name="ردیف" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{13829869-610F-405E-BEEA-1B5A437D3B56}" name="تاریخ" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{66C497CF-87AE-457C-8CE6-EFC4D0083899}" name="تعداد بیزینس‌ها" dataDxfId="66" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{10E89E4A-5DA9-477F-92BF-2ED669AB1E08}" name="Column1" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{7B0EFEC3-8172-4D43-9BF4-B3EBF38D7C74}" name="ردیف" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{13829869-610F-405E-BEEA-1B5A437D3B56}" name="تاریخ" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{66C497CF-87AE-457C-8CE6-EFC4D0083899}" name="تعداد بیزینس‌ها" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{10E89E4A-5DA9-477F-92BF-2ED669AB1E08}" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:J13" totalsRowShown="0" headerRowDxfId="166" dataDxfId="165">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:J13" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <autoFilter ref="A1:J13" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="164">
+    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="100">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="163"/>
-    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="162"/>
-    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="161">
+    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="97">
       <calculatedColumnFormula>'پیش‌بینی درآمد'!$C$8:$F$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="160">
+    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="96">
       <calculatedColumnFormula>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="159">
+    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="95">
       <calculatedColumnFormula>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="158"/>
-    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="157"/>
-    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="156"/>
-    <tableColumn id="9" xr3:uid="{A95B37EE-B672-4C1F-B96C-91C026F696D6}" name="جمع" dataDxfId="155"/>
+    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="92"/>
+    <tableColumn id="9" xr3:uid="{A95B37EE-B672-4C1F-B96C-91C026F696D6}" name="جمع" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{624DDB21-6F93-4459-A754-B68AB315EF55}" name="tbl_jibres_revenue" displayName="tbl_jibres_revenue" ref="A1:G18" totalsRowShown="0" headerRowDxfId="154" dataDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{624DDB21-6F93-4459-A754-B68AB315EF55}" name="tbl_jibres_revenue" displayName="tbl_jibres_revenue" ref="A1:G18" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="A1:G18" xr:uid="{EE4F9C7E-D73A-483B-AEAE-E5896E779AA1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
     <sortCondition ref="B1:B16"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DABB7D62-BF6E-41DD-95A2-6CFC3034A844}" name="ردیف" dataDxfId="152">
+    <tableColumn id="1" xr3:uid="{DABB7D62-BF6E-41DD-95A2-6CFC3034A844}" name="ردیف" dataDxfId="88">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{168739EF-6C06-4113-BBDD-AAF168610AA5}" name="سال و ماه" dataDxfId="151"/>
-    <tableColumn id="3" xr3:uid="{66F66387-A8B5-43AA-87B7-3D0CC9168F60}" name="مبلغ درآمد کسب شده" dataDxfId="150" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{52595ECE-74E2-4FC3-B5B6-FA33D7AC0B25}" name="سال" dataDxfId="149">
+    <tableColumn id="2" xr3:uid="{168739EF-6C06-4113-BBDD-AAF168610AA5}" name="سال و ماه" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{66F66387-A8B5-43AA-87B7-3D0CC9168F60}" name="مبلغ درآمد کسب شده" dataDxfId="86" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{52595ECE-74E2-4FC3-B5B6-FA33D7AC0B25}" name="سال" dataDxfId="85">
       <calculatedColumnFormula>_xlfn.NUMBERVALUE(LEFT(tbl_jibres_revenue[[#This Row],[سال و ماه]],4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{76A94C10-B40B-457E-B3BA-12ED3056AC3C}" name="ماه" dataDxfId="148">
+    <tableColumn id="5" xr3:uid="{76A94C10-B40B-457E-B3BA-12ED3056AC3C}" name="ماه" dataDxfId="84">
       <calculatedColumnFormula>_xlfn.NUMBERVALUE(RIGHT(tbl_jibres_revenue[[#This Row],[سال و ماه]],2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{788D8E6A-2106-4F14-AE9E-6B9F33B3D9AA}" name="فصل" dataDxfId="147">
+    <tableColumn id="6" xr3:uid="{788D8E6A-2106-4F14-AE9E-6B9F33B3D9AA}" name="فصل" dataDxfId="83">
       <calculatedColumnFormula>IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=3, 1, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=6, 2, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=9, 3, IF(tbl_jibres_revenue[[#This Row],[ماه]]&lt;=12, 4, "-"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2A89C0FC-8202-43C3-9C20-98C973C49A39}" name="رشد نسبت به ماه قبل" dataDxfId="146" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{2A89C0FC-8202-43C3-9C20-98C973C49A39}" name="رشد نسبت به ماه قبل" dataDxfId="82" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(tbl_jibres_revenue[[#This Row],[مبلغ درآمد کسب شده]]/C3, "-")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14386,14 +14389,14 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8F7C5B66-3440-4B94-84F1-840A1C45E788}" name="tbl_jibres_revenue_year" displayName="tbl_jibres_revenue_year" ref="J1:K4" totalsRowCount="1" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8F7C5B66-3440-4B94-84F1-840A1C45E788}" name="tbl_jibres_revenue_year" displayName="tbl_jibres_revenue_year" ref="J1:K4" totalsRowCount="1" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="J1:K3" xr:uid="{97006F0C-AD59-4C54-9C49-941C006952C3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K3">
     <sortCondition descending="1" ref="J1:J3"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1A07868F-2787-433C-A121-F187E59299E3}" name="به تفکیک سال" totalsRowLabel="Total" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{76BD64A1-CD1F-41A3-B845-76B7D5F43482}" name="جمع درآمد" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="140">
+    <tableColumn id="1" xr3:uid="{1A07868F-2787-433C-A121-F187E59299E3}" name="به تفکیک سال" totalsRowLabel="Total" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{76BD64A1-CD1F-41A3-B845-76B7D5F43482}" name="جمع درآمد" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76">
       <calculatedColumnFormula>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],tbl_jibres_revenue_year[[#This Row],[به تفکیک سال]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14402,22 +14405,22 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{9DD825A4-326D-43E1-B1E2-8DA584973940}" name="Table18" displayName="Table18" ref="N1:R7" totalsRowCount="1" headerRowDxfId="139" dataDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{9DD825A4-326D-43E1-B1E2-8DA584973940}" name="Table18" displayName="Table18" ref="N1:R7" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="N1:R6" xr:uid="{ED95FAF6-F062-4349-8D2D-F4A023A88753}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:R6">
     <sortCondition ref="N2:N6"/>
     <sortCondition ref="O2:O6"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C7E05CC4-3546-4718-9C4B-0391377B8E6F}" name="سال" totalsRowLabel="Total" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{A46F4F4D-DEED-4FF6-AA41-10D2448BC299}" name="فصل" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="4" xr3:uid="{FB4496C4-A8EE-4D44-8763-AB435C002C0F}" name="عنوان" dataDxfId="133" totalsRowDxfId="132">
+    <tableColumn id="1" xr3:uid="{C7E05CC4-3546-4718-9C4B-0391377B8E6F}" name="سال" totalsRowLabel="Total" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{A46F4F4D-DEED-4FF6-AA41-10D2448BC299}" name="فصل" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{FB4496C4-A8EE-4D44-8763-AB435C002C0F}" name="عنوان" dataDxfId="69" totalsRowDxfId="68">
       <calculatedColumnFormula>Table18[[#This Row],[سال]]&amp; "-Q"&amp;Table18[[#This Row],[فصل]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EF262220-04D4-41A3-9C08-5E8E750EDD38}" name="جمع درآمد" dataDxfId="131" totalsRowDxfId="130">
+    <tableColumn id="3" xr3:uid="{EF262220-04D4-41A3-9C08-5E8E750EDD38}" name="جمع درآمد" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>SUMIFS(tbl_jibres_revenue[مبلغ درآمد کسب شده],tbl_jibres_revenue[سال],Table18[[#This Row],[سال]],tbl_jibres_revenue[فصل],Table18[[#This Row],[فصل]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E5D77664-930E-4958-A111-6FA4AEA13344}" name="درصد رشد نسبت به فصل قبل" totalsRowFunction="average" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{E5D77664-930E-4958-A111-6FA4AEA13344}" name="درصد رشد نسبت به فصل قبل" totalsRowFunction="average" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR(Table18[[#This Row],[جمع درآمد]]/Q3, "-")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14426,66 +14429,66 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="127" dataDxfId="126" totalsRowDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="63" dataDxfId="62" totalsRowDxfId="61">
   <autoFilter ref="A1:M13" xr:uid="{7E87C80A-E7EE-4352-81C0-E925498C3A9A}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="120" totalsRowDxfId="119" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="117" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="115" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="113" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A23:M26" xr:uid="{65851948-34D5-432A-B8FB-4FA5D425C4F9}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Percent">
+    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15355,10 +15358,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C4C132-3265-4B20-AEC4-A2AE2B54AA52}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:N8"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -15367,10 +15370,12 @@
     <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="21.7109375" style="1" customWidth="1"/>
     <col min="11" max="14" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -15414,7 +15419,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -15459,7 +15464,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A8" si="0">ROW(A2)</f>
         <v>2</v>
@@ -15516,7 +15521,7 @@
         <v>5.9833333333333336E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -15572,8 +15577,9 @@
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -15630,7 +15636,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -15687,7 +15693,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -15744,7 +15750,7 @@
         <v>330000000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -15801,7 +15807,7 @@
         <v>990000000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <f>ROW(A8)</f>
         <v>8</v>
@@ -15854,7 +15860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -15867,7 +15873,7 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -15878,7 +15884,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -15892,192 +15898,275 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C16" s="4">
         <v>920</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>1400</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>1401</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>1402</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C17" s="4">
-        <f>ROUND(C16*(1+CAGR), 0)</f>
+        <f t="shared" ref="C17:C43" si="12">ROUND(C16*(1+CAGR), 0)</f>
         <v>1051</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <f>F2</f>
         <v>1100</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <f>J2</f>
         <v>3000</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
         <f>N2</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C18" s="4">
-        <f>ROUND(C17*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>1200</v>
       </c>
-      <c r="F18" s="12">
+      <c r="G18" s="12">
         <f>SUM(C8:F8)</f>
         <v>109560000</v>
       </c>
-      <c r="G18" s="12">
+      <c r="H18" s="12">
         <f>SUM(G8:J8)</f>
         <v>272250000</v>
       </c>
-      <c r="H18" s="12">
+      <c r="I18" s="12">
         <f>SUM(K8:N8)</f>
         <v>1897500000</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C19" s="4">
-        <f>ROUND(C18*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>1370</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="12">
+        <f>G18/12</f>
+        <v>9130000</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" ref="H19:I19" si="13">H18/12</f>
+        <v>22687500</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="13"/>
+        <v>158125000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C20" s="4">
-        <f>ROUND(C19*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>1565</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F20" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" s="51">
+        <f>G18/365</f>
+        <v>300164.38356164383</v>
+      </c>
+      <c r="H20" s="51">
+        <f t="shared" ref="H20:I20" si="14">H18/365</f>
+        <v>745890.41095890407</v>
+      </c>
+      <c r="I20" s="51">
+        <f t="shared" si="14"/>
+        <v>5198630.1369863013</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C21" s="4">
-        <f>ROUND(C20*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>1787</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C22" s="4">
-        <f>ROUND(C21*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>2041</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C23" s="4">
-        <f>ROUND(C22*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>2331</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C24" s="4">
-        <f>ROUND(C23*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>2662</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G24" s="1">
+        <f>H24*1.5</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="1">
+        <f>(11+6+1+1+1) *1.2</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C25" s="4">
-        <f>ROUND(C24*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>3040</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H25" s="1">
+        <f>I25*3</f>
+        <v>90</v>
+      </c>
+      <c r="I25" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C26" s="4">
-        <f>ROUND(C25*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>3472</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H26" s="1">
+        <f>I26*12</f>
+        <v>600</v>
+      </c>
+      <c r="I26" s="1">
+        <v>50</v>
+      </c>
+      <c r="J26" s="1">
+        <f>I24*1.5</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C27" s="4">
-        <f>ROUND(C26*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>3965</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H27" s="1">
+        <f>I27*12</f>
+        <v>1800</v>
+      </c>
+      <c r="I27" s="1">
+        <v>150</v>
+      </c>
+      <c r="J27" s="1">
+        <f>J26*1.5</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C28" s="4">
-        <f>ROUND(C27*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>4528</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H28" s="1">
+        <f>H27+H26+H25</f>
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C29" s="4">
-        <f>ROUND(C28*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>5171</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="J29" s="1">
+        <f>J26*12</f>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C30" s="4">
-        <f>ROUND(C29*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>5905</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="J30" s="1">
+        <f>J27*12</f>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C31" s="4">
-        <f>ROUND(C30*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>6744</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="J31" s="1">
+        <f>J30+J29</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C32" s="4">
-        <f>ROUND(C31*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>7702</v>
       </c>
     </row>
@@ -16086,7 +16175,7 @@
         <v>244</v>
       </c>
       <c r="C33" s="4">
-        <f>ROUND(C32*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>8796</v>
       </c>
     </row>
@@ -16095,7 +16184,7 @@
         <v>245</v>
       </c>
       <c r="C34" s="4">
-        <f>ROUND(C33*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>10045</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -16107,7 +16196,7 @@
         <v>246</v>
       </c>
       <c r="C35" s="4">
-        <f>ROUND(C34*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>11471</v>
       </c>
     </row>
@@ -16116,7 +16205,7 @@
         <v>247</v>
       </c>
       <c r="C36" s="4">
-        <f>ROUND(C35*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>13100</v>
       </c>
     </row>
@@ -16125,7 +16214,7 @@
         <v>248</v>
       </c>
       <c r="C37" s="4">
-        <f>ROUND(C36*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>14960</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -16137,7 +16226,7 @@
         <v>249</v>
       </c>
       <c r="C38" s="4">
-        <f>ROUND(C37*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>17084</v>
       </c>
     </row>
@@ -16146,7 +16235,7 @@
         <v>250</v>
       </c>
       <c r="C39" s="4">
-        <f>ROUND(C38*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>19510</v>
       </c>
     </row>
@@ -16155,7 +16244,7 @@
         <v>251</v>
       </c>
       <c r="C40" s="4">
-        <f>ROUND(C39*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>22280</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -16167,7 +16256,7 @@
         <v>252</v>
       </c>
       <c r="C41" s="4">
-        <f>ROUND(C40*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>25444</v>
       </c>
     </row>
@@ -16176,7 +16265,7 @@
         <v>253</v>
       </c>
       <c r="C42" s="4">
-        <f>ROUND(C41*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>29057</v>
       </c>
     </row>
@@ -16185,7 +16274,7 @@
         <v>254</v>
       </c>
       <c r="C43" s="4">
-        <f>ROUND(C42*(1+CAGR), 0)</f>
+        <f t="shared" si="12"/>
         <v>33183</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -16211,7 +16300,7 @@
   <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -16759,16 +16848,16 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="53" t="s">
@@ -16934,16 +17023,16 @@
       <c r="I29" s="59"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="s">
@@ -17052,14 +17141,14 @@
       <c r="E35" s="72"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D37" s="59"/>
@@ -17155,7 +17244,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -17860,7 +17949,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G2:G18">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17880,7 +17969,7 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F16" sqref="C16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -19205,7 +19294,7 @@
       <c r="A23" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="81">
+      <c r="B23" s="80">
         <v>0.14199999999999999</v>
       </c>
     </row>
@@ -19248,7 +19337,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -20312,7 +20401,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -20365,28 +20454,28 @@
       <c r="J1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="83" t="s">
+      <c r="N1" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="83" t="s">
+      <c r="O1" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="83" t="s">
+      <c r="P1" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" s="83" t="s">
+      <c r="Q1" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="R1" s="83" t="s">
+      <c r="R1" s="82" t="s">
         <v>93</v>
       </c>
     </row>
@@ -21241,7 +21330,7 @@
       <c r="B18" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="81">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
         <v>5.9833333333333336E-3</v>
       </c>
